--- a/BK_farger_listet.xlsx
+++ b/BK_farger_listet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\adm.bgo\BK\Felles\Raadhuset\Byraadslederavdeling\Infoavdelingen\111_Ansatt\Ann-Kristin Loodtz\PROFIL\01_Verktøykasse\20_Fargepalett\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3489A5F2-5C55-49BC-9C02-E67B276CA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23192559-720A-423F-A1B7-29EF6A7B5893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="43200" windowHeight="17145" xr2:uid="{50B1AEEA-2C48-41FF-B3B5-7B1090177F7B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="18936" windowHeight="9960" xr2:uid="{50B1AEEA-2C48-41FF-B3B5-7B1090177F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="140">
   <si>
     <t>Rød</t>
   </si>
@@ -66,9 +66,6 @@
     <t>RGB: 186/135/22</t>
   </si>
   <si>
-    <t>HEX: BA8716</t>
-  </si>
-  <si>
     <t>CMYK: 20/35/100/05</t>
   </si>
   <si>
@@ -412,6 +409,57 @@
   </si>
   <si>
     <t>CMYK: 0/0/0/5</t>
+  </si>
+  <si>
+    <t>Fargeserie til grafikk</t>
+  </si>
+  <si>
+    <t>Følg rekkefølgen i grafikk, har godkjent kontrast seg imellom, samt mot bakgrunner på 5 prosent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serien er en sirkel, du kan starte hvor du vil </t>
+  </si>
+  <si>
+    <t>Mellomblå</t>
+  </si>
+  <si>
+    <t>Mellomgrønn</t>
+  </si>
+  <si>
+    <t>Mellomlilla</t>
+  </si>
+  <si>
+    <t>Svart</t>
+  </si>
+  <si>
+    <t>#DC1E23</t>
+  </si>
+  <si>
+    <t>HEX:#BA8716</t>
+  </si>
+  <si>
+    <t>#BA8716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#134271 </t>
+  </si>
+  <si>
+    <t>#408FDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#094327 </t>
+  </si>
+  <si>
+    <t>#30A16C</t>
+  </si>
+  <si>
+    <t>#602772</t>
+  </si>
+  <si>
+    <t>#BA6CCD</t>
+  </si>
+  <si>
+    <t>#242424</t>
   </si>
 </sst>
 </file>
@@ -569,7 +617,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,21 +958,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5390CBBC-E043-458F-B271-BDF592777367}">
-  <dimension ref="A1:O48"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,340 +989,410 @@
         <v>3</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" s="11"/>
       <c r="D9" s="7"/>
       <c r="E9" s="11"/>
       <c r="G9" s="10"/>
       <c r="I9" s="10"/>
       <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C12" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="O12" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14" s="11"/>
       <c r="D14" s="5"/>
       <c r="E14" s="11"/>
       <c r="G14" s="11"/>
       <c r="I14" s="10"/>
       <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="O17" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
       <c r="E19" s="11"/>
       <c r="G19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="L19" s="17"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C24" s="11"/>
       <c r="D24" s="9"/>
       <c r="E24" s="11"/>
@@ -1282,79 +1400,79 @@
       <c r="I24" s="11"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C26" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
       <c r="E29" s="11"/>
@@ -1362,150 +1480,147 @@
       <c r="I29" s="11"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L30" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C32" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="15"/>
       <c r="L35" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="L36" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L37" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="6" t="s">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L38" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="6" t="s">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L40" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L41" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L42" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="4" t="s">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L45" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L46" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L42" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L45" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L46" s="6" t="s">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L47" s="6" t="s">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L48" s="6" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L48" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
